--- a/outputs/invoice_工厂_Daman.xlsx
+++ b/outputs/invoice_工厂_Daman.xlsx
@@ -50,7 +50,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -64,11 +64,32 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -78,6 +99,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,19 +571,19 @@
       <c r="E2" s="3" t="n">
         <v>465</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>10.08</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>2.56</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>F07</t>
         </is>
@@ -583,15 +613,13 @@
       <c r="E3" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
       <c r="I3" s="3" t="n">
         <v>2.75</v>
       </c>
-      <c r="J3" s="3" t="inlineStr"/>
+      <c r="J3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -615,15 +643,13 @@
       <c r="E4" s="3" t="n">
         <v>546</v>
       </c>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
       <c r="I4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="3" t="inlineStr"/>
+      <c r="J4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -647,15 +673,13 @@
       <c r="E5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
       <c r="I5" s="3" t="n">
         <v>0.22</v>
       </c>
-      <c r="J5" s="3" t="inlineStr"/>
+      <c r="J5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -679,15 +703,13 @@
       <c r="E6" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
       <c r="I6" s="3" t="n">
         <v>0.22</v>
       </c>
-      <c r="J6" s="3" t="inlineStr"/>
+      <c r="J6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -711,15 +733,13 @@
       <c r="E7" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
       <c r="I7" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="J7" s="3" t="inlineStr"/>
+      <c r="J7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -783,19 +803,19 @@
       <c r="E9" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>3.36</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
@@ -823,15 +843,13 @@
       <c r="E10" s="3" t="n">
         <v>395</v>
       </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
       <c r="I10" s="3" t="n">
         <v>3.31</v>
       </c>
-      <c r="J10" s="3" t="inlineStr"/>
+      <c r="J10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -855,15 +873,13 @@
       <c r="E11" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
       <c r="I11" s="3" t="n">
         <v>3.36</v>
       </c>
-      <c r="J11" s="3" t="inlineStr"/>
+      <c r="J11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -887,15 +903,13 @@
       <c r="E12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
       <c r="I12" s="3" t="n">
         <v>1.68</v>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
+      <c r="J12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -919,15 +933,13 @@
       <c r="E13" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
       <c r="I13" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="J13" s="3" t="inlineStr"/>
+      <c r="J13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -951,15 +963,13 @@
       <c r="E14" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="5" t="n"/>
       <c r="I14" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="J14" s="3" t="inlineStr"/>
+      <c r="J14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -983,15 +993,13 @@
       <c r="E15" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="5" t="n"/>
       <c r="I15" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="J15" s="3" t="inlineStr"/>
+      <c r="J15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1015,15 +1023,13 @@
       <c r="E16" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="5" t="n"/>
       <c r="I16" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="J16" s="3" t="inlineStr"/>
+      <c r="J16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1047,15 +1053,13 @@
       <c r="E17" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr"/>
-      <c r="H17" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
       <c r="I17" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="J17" s="3" t="inlineStr"/>
+      <c r="J17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -1178,6 +1182,16 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F9:F17"/>
+    <mergeCell ref="G9:G17"/>
+    <mergeCell ref="H9:H17"/>
+    <mergeCell ref="J9:J17"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="H2:H7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/outputs/invoice_工厂_Daman.xlsx
+++ b/outputs/invoice_工厂_Daman.xlsx
@@ -1281,7 +1281,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H17" t="n">
